--- a/sessions/data/Part_I/SIAF/regional/regional_table.xlsx
+++ b/sessions/data/Part_I/SIAF/regional/regional_table.xlsx
@@ -490,25 +490,25 @@
         <v>1179543064</v>
       </c>
       <c r="C2" t="n">
-        <v>1504888953</v>
+        <v>1519119063</v>
       </c>
       <c r="D2" t="n">
-        <v>1463829153</v>
+        <v>1463142453</v>
       </c>
       <c r="E2" t="n">
-        <v>1332523428</v>
+        <v>1348878329</v>
       </c>
       <c r="F2" t="n">
-        <v>1308523245</v>
+        <v>1328655638</v>
       </c>
       <c r="G2" t="n">
-        <v>1279150903</v>
+        <v>1296577793</v>
       </c>
       <c r="H2" t="n">
-        <v>1178443440</v>
+        <v>1236122667</v>
       </c>
       <c r="I2" t="n">
-        <v>85</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -521,25 +521,25 @@
         <v>2535471411</v>
       </c>
       <c r="C3" t="n">
-        <v>2996975486</v>
+        <v>3025244520</v>
       </c>
       <c r="D3" t="n">
-        <v>2720233624</v>
+        <v>2743298694</v>
       </c>
       <c r="E3" t="n">
-        <v>2448148507</v>
+        <v>2494953044</v>
       </c>
       <c r="F3" t="n">
-        <v>2402360853</v>
+        <v>2452470263</v>
       </c>
       <c r="G3" t="n">
-        <v>2292571159</v>
+        <v>2337550721</v>
       </c>
       <c r="H3" t="n">
-        <v>2271082289</v>
+        <v>2304170416</v>
       </c>
       <c r="I3" t="n">
-        <v>76.5</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="4">
@@ -555,22 +555,22 @@
         <v>1513009025</v>
       </c>
       <c r="D4" t="n">
-        <v>1375547684</v>
+        <v>1376437293</v>
       </c>
       <c r="E4" t="n">
-        <v>1331036632</v>
+        <v>1345041407</v>
       </c>
       <c r="F4" t="n">
-        <v>1311524288</v>
+        <v>1322213760</v>
       </c>
       <c r="G4" t="n">
-        <v>1257485229</v>
+        <v>1268078863</v>
       </c>
       <c r="H4" t="n">
-        <v>1234622502</v>
+        <v>1241617172</v>
       </c>
       <c r="I4" t="n">
-        <v>83.09999999999999</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="5">
@@ -583,25 +583,25 @@
         <v>2380402279</v>
       </c>
       <c r="C5" t="n">
-        <v>3153553160</v>
+        <v>3175559100</v>
       </c>
       <c r="D5" t="n">
-        <v>2838882882</v>
+        <v>2884432196</v>
       </c>
       <c r="E5" t="n">
-        <v>2714483554</v>
+        <v>2769995948</v>
       </c>
       <c r="F5" t="n">
-        <v>2672481083</v>
+        <v>2734599380</v>
       </c>
       <c r="G5" t="n">
-        <v>2589568212</v>
+        <v>2636298825</v>
       </c>
       <c r="H5" t="n">
-        <v>2577943145</v>
+        <v>2603400734</v>
       </c>
       <c r="I5" t="n">
-        <v>82.09999999999999</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -614,25 +614,25 @@
         <v>1739949908</v>
       </c>
       <c r="C6" t="n">
-        <v>2250344232</v>
+        <v>2253196809</v>
       </c>
       <c r="D6" t="n">
-        <v>2084312392</v>
+        <v>2103020279</v>
       </c>
       <c r="E6" t="n">
-        <v>2025983577</v>
+        <v>2058257415</v>
       </c>
       <c r="F6" t="n">
-        <v>1941676557</v>
+        <v>1982150574</v>
       </c>
       <c r="G6" t="n">
-        <v>1885327467</v>
+        <v>1919412614</v>
       </c>
       <c r="H6" t="n">
-        <v>1865571064</v>
+        <v>1889121827</v>
       </c>
       <c r="I6" t="n">
-        <v>83.8</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="7">
@@ -645,25 +645,25 @@
         <v>2889586900</v>
       </c>
       <c r="C7" t="n">
-        <v>3784041168</v>
+        <v>3827354458</v>
       </c>
       <c r="D7" t="n">
-        <v>3616299803</v>
+        <v>3674486894</v>
       </c>
       <c r="E7" t="n">
-        <v>3326158269</v>
+        <v>3432004526</v>
       </c>
       <c r="F7" t="n">
-        <v>3114391304</v>
+        <v>3196891993</v>
       </c>
       <c r="G7" t="n">
-        <v>3035197911</v>
+        <v>3100177024</v>
       </c>
       <c r="H7" t="n">
-        <v>2997005861</v>
+        <v>3069324327</v>
       </c>
       <c r="I7" t="n">
-        <v>80.2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -676,25 +676,25 @@
         <v>2777544938</v>
       </c>
       <c r="C8" t="n">
-        <v>3411863915</v>
+        <v>3411878794</v>
       </c>
       <c r="D8" t="n">
-        <v>3089140732</v>
+        <v>3086841410</v>
       </c>
       <c r="E8" t="n">
-        <v>2889019824</v>
+        <v>2896781210</v>
       </c>
       <c r="F8" t="n">
-        <v>2811985250</v>
+        <v>2844009161</v>
       </c>
       <c r="G8" t="n">
-        <v>2695764061</v>
+        <v>2724095312</v>
       </c>
       <c r="H8" t="n">
-        <v>2662221441</v>
+        <v>2684896917</v>
       </c>
       <c r="I8" t="n">
-        <v>79</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="9">
@@ -707,25 +707,25 @@
         <v>1103900818</v>
       </c>
       <c r="C9" t="n">
-        <v>1403755060</v>
+        <v>1412961567</v>
       </c>
       <c r="D9" t="n">
-        <v>1277024128</v>
+        <v>1317152771</v>
       </c>
       <c r="E9" t="n">
-        <v>1231237540</v>
+        <v>1285458730</v>
       </c>
       <c r="F9" t="n">
-        <v>1191433290</v>
+        <v>1221858109</v>
       </c>
       <c r="G9" t="n">
-        <v>1167411152</v>
+        <v>1198201414</v>
       </c>
       <c r="H9" t="n">
-        <v>1139898599</v>
+        <v>1152947082</v>
       </c>
       <c r="I9" t="n">
-        <v>83.2</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="10">
@@ -741,22 +741,22 @@
         <v>1993396718</v>
       </c>
       <c r="D10" t="n">
-        <v>1822056208</v>
+        <v>1831718278</v>
       </c>
       <c r="E10" t="n">
-        <v>1714646122</v>
+        <v>1736800065</v>
       </c>
       <c r="F10" t="n">
-        <v>1639404577</v>
+        <v>1683157788</v>
       </c>
       <c r="G10" t="n">
-        <v>1538680851</v>
+        <v>1571931002</v>
       </c>
       <c r="H10" t="n">
-        <v>1512427400</v>
+        <v>1531538794</v>
       </c>
       <c r="I10" t="n">
-        <v>77.2</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -772,22 +772,22 @@
         <v>2279444486</v>
       </c>
       <c r="D11" t="n">
-        <v>2137713211</v>
+        <v>2141917556</v>
       </c>
       <c r="E11" t="n">
-        <v>1877258109</v>
+        <v>1887539680</v>
       </c>
       <c r="F11" t="n">
-        <v>1810584663</v>
+        <v>1827623446</v>
       </c>
       <c r="G11" t="n">
-        <v>1710326856</v>
+        <v>1733474218</v>
       </c>
       <c r="H11" t="n">
-        <v>1681840476</v>
+        <v>1706600077</v>
       </c>
       <c r="I11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -800,25 +800,25 @@
         <v>2434904923</v>
       </c>
       <c r="C12" t="n">
-        <v>3182035220</v>
+        <v>3184447787</v>
       </c>
       <c r="D12" t="n">
-        <v>2954432442</v>
+        <v>2961542271</v>
       </c>
       <c r="E12" t="n">
-        <v>2869737020</v>
+        <v>2920483635</v>
       </c>
       <c r="F12" t="n">
-        <v>2790214602</v>
+        <v>2837957435</v>
       </c>
       <c r="G12" t="n">
-        <v>2722522670</v>
+        <v>2762892051</v>
       </c>
       <c r="H12" t="n">
-        <v>2667519760</v>
+        <v>2684626902</v>
       </c>
       <c r="I12" t="n">
-        <v>85.59999999999999</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="13">
@@ -831,25 +831,25 @@
         <v>2809776833</v>
       </c>
       <c r="C13" t="n">
-        <v>3459385924</v>
+        <v>3495470001</v>
       </c>
       <c r="D13" t="n">
-        <v>3162667646</v>
+        <v>3179889079</v>
       </c>
       <c r="E13" t="n">
-        <v>2989514240</v>
+        <v>3032284774</v>
       </c>
       <c r="F13" t="n">
-        <v>2782739025</v>
+        <v>2846655763</v>
       </c>
       <c r="G13" t="n">
-        <v>2703764807</v>
+        <v>2745190958</v>
       </c>
       <c r="H13" t="n">
-        <v>2672734090</v>
+        <v>2701123132</v>
       </c>
       <c r="I13" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="14">
@@ -862,25 +862,25 @@
         <v>1786368644</v>
       </c>
       <c r="C14" t="n">
-        <v>2320308572</v>
+        <v>2320344198</v>
       </c>
       <c r="D14" t="n">
-        <v>2143250170</v>
+        <v>2167205127</v>
       </c>
       <c r="E14" t="n">
-        <v>1922946164</v>
+        <v>1976312405</v>
       </c>
       <c r="F14" t="n">
-        <v>1835701304</v>
+        <v>1898699037</v>
       </c>
       <c r="G14" t="n">
-        <v>1724769289</v>
+        <v>1791151728</v>
       </c>
       <c r="H14" t="n">
-        <v>1694298343</v>
+        <v>1753766343</v>
       </c>
       <c r="I14" t="n">
-        <v>74.3</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="15">
@@ -896,22 +896,22 @@
         <v>3081276146</v>
       </c>
       <c r="D15" t="n">
-        <v>2912295919</v>
+        <v>2958547987</v>
       </c>
       <c r="E15" t="n">
-        <v>2773343684</v>
+        <v>2865112804</v>
       </c>
       <c r="F15" t="n">
-        <v>2705741354</v>
+        <v>2797052609</v>
       </c>
       <c r="G15" t="n">
-        <v>2663347959</v>
+        <v>2747059876</v>
       </c>
       <c r="H15" t="n">
-        <v>2615514587</v>
+        <v>2675181130</v>
       </c>
       <c r="I15" t="n">
-        <v>86.40000000000001</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="16">
@@ -924,25 +924,25 @@
         <v>447667494</v>
       </c>
       <c r="C16" t="n">
-        <v>536843114</v>
+        <v>540835746</v>
       </c>
       <c r="D16" t="n">
-        <v>508153870</v>
+        <v>511437114</v>
       </c>
       <c r="E16" t="n">
-        <v>492834850</v>
+        <v>497046975</v>
       </c>
       <c r="F16" t="n">
-        <v>472663930</v>
+        <v>485611238</v>
       </c>
       <c r="G16" t="n">
-        <v>448930286</v>
+        <v>458451009</v>
       </c>
       <c r="H16" t="n">
-        <v>431640889</v>
+        <v>440238129</v>
       </c>
       <c r="I16" t="n">
-        <v>83.59999999999999</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="17">
@@ -955,25 +955,25 @@
         <v>659808393</v>
       </c>
       <c r="C17" t="n">
-        <v>842092862</v>
+        <v>842181762</v>
       </c>
       <c r="D17" t="n">
-        <v>747193243</v>
+        <v>771992306</v>
       </c>
       <c r="E17" t="n">
-        <v>709775584</v>
+        <v>739109989</v>
       </c>
       <c r="F17" t="n">
-        <v>687814005</v>
+        <v>712034989</v>
       </c>
       <c r="G17" t="n">
-        <v>648472769</v>
+        <v>671109615</v>
       </c>
       <c r="H17" t="n">
-        <v>639462573</v>
+        <v>656889725</v>
       </c>
       <c r="I17" t="n">
-        <v>77</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="18">
@@ -986,25 +986,25 @@
         <v>802906504</v>
       </c>
       <c r="C18" t="n">
-        <v>1028474970</v>
+        <v>1037288258</v>
       </c>
       <c r="D18" t="n">
-        <v>961763167</v>
+        <v>967847293</v>
       </c>
       <c r="E18" t="n">
-        <v>854014803</v>
+        <v>906875910</v>
       </c>
       <c r="F18" t="n">
-        <v>815366583</v>
+        <v>844609879</v>
       </c>
       <c r="G18" t="n">
-        <v>792979680</v>
+        <v>806210735</v>
       </c>
       <c r="H18" t="n">
-        <v>783448376</v>
+        <v>791444761</v>
       </c>
       <c r="I18" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="19">
@@ -1017,22 +1017,22 @@
         <v>3203410115</v>
       </c>
       <c r="C19" t="n">
-        <v>3795658352</v>
+        <v>3833430450</v>
       </c>
       <c r="D19" t="n">
-        <v>3541945165</v>
+        <v>3558528207</v>
       </c>
       <c r="E19" t="n">
-        <v>3438539002</v>
+        <v>3466514739</v>
       </c>
       <c r="F19" t="n">
-        <v>3337174335</v>
+        <v>3362431314</v>
       </c>
       <c r="G19" t="n">
-        <v>3247069954</v>
+        <v>3277489526</v>
       </c>
       <c r="H19" t="n">
-        <v>3203154105</v>
+        <v>3234130113</v>
       </c>
       <c r="I19" t="n">
         <v>85.5</v>
@@ -1048,25 +1048,25 @@
         <v>2516816458</v>
       </c>
       <c r="C20" t="n">
-        <v>3005089743</v>
+        <v>3005882189</v>
       </c>
       <c r="D20" t="n">
-        <v>2765488283</v>
+        <v>2782911304</v>
       </c>
       <c r="E20" t="n">
-        <v>2608647859</v>
+        <v>2646705885</v>
       </c>
       <c r="F20" t="n">
-        <v>2457107171</v>
+        <v>2542727880</v>
       </c>
       <c r="G20" t="n">
-        <v>2388268510</v>
+        <v>2454041540</v>
       </c>
       <c r="H20" t="n">
-        <v>2328955988</v>
+        <v>2375361243</v>
       </c>
       <c r="I20" t="n">
-        <v>79.5</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1079,25 +1079,25 @@
         <v>1903777995</v>
       </c>
       <c r="C21" t="n">
-        <v>2283043835</v>
+        <v>2305462518</v>
       </c>
       <c r="D21" t="n">
-        <v>2196849033</v>
+        <v>2198155938</v>
       </c>
       <c r="E21" t="n">
-        <v>2050213615</v>
+        <v>2054839914</v>
       </c>
       <c r="F21" t="n">
-        <v>1911718016</v>
+        <v>1964017621</v>
       </c>
       <c r="G21" t="n">
-        <v>1837363435</v>
+        <v>1889311156</v>
       </c>
       <c r="H21" t="n">
-        <v>1805363056</v>
+        <v>1845954082</v>
       </c>
       <c r="I21" t="n">
-        <v>80.5</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1110,25 +1110,25 @@
         <v>860030734</v>
       </c>
       <c r="C22" t="n">
-        <v>1106984820</v>
+        <v>1108745268</v>
       </c>
       <c r="D22" t="n">
-        <v>927987953</v>
+        <v>927570006</v>
       </c>
       <c r="E22" t="n">
-        <v>895471587</v>
+        <v>901675419</v>
       </c>
       <c r="F22" t="n">
-        <v>875776663</v>
+        <v>885564926</v>
       </c>
       <c r="G22" t="n">
-        <v>816042025</v>
+        <v>823995681</v>
       </c>
       <c r="H22" t="n">
-        <v>790134384</v>
+        <v>813360730</v>
       </c>
       <c r="I22" t="n">
-        <v>73.7</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="23">
@@ -1141,25 +1141,25 @@
         <v>531177430</v>
       </c>
       <c r="C23" t="n">
-        <v>813922350</v>
+        <v>814047462</v>
       </c>
       <c r="D23" t="n">
-        <v>785499384</v>
+        <v>793922349</v>
       </c>
       <c r="E23" t="n">
-        <v>762837834</v>
+        <v>773938743</v>
       </c>
       <c r="F23" t="n">
-        <v>748187937</v>
+        <v>762971593</v>
       </c>
       <c r="G23" t="n">
-        <v>672523531</v>
+        <v>706272682</v>
       </c>
       <c r="H23" t="n">
-        <v>663705483</v>
+        <v>683872990</v>
       </c>
       <c r="I23" t="n">
-        <v>82.59999999999999</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="24">
@@ -1172,25 +1172,25 @@
         <v>1276424841</v>
       </c>
       <c r="C24" t="n">
-        <v>1611267625</v>
+        <v>1611494361</v>
       </c>
       <c r="D24" t="n">
-        <v>1537576424</v>
+        <v>1558453047</v>
       </c>
       <c r="E24" t="n">
-        <v>1348719302</v>
+        <v>1388057961</v>
       </c>
       <c r="F24" t="n">
-        <v>1329463193</v>
+        <v>1357730240</v>
       </c>
       <c r="G24" t="n">
-        <v>1297937805</v>
+        <v>1331557755</v>
       </c>
       <c r="H24" t="n">
-        <v>1240967104</v>
+        <v>1263455617</v>
       </c>
       <c r="I24" t="n">
-        <v>80.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1203,25 +1203,25 @@
         <v>1665540514</v>
       </c>
       <c r="C25" t="n">
-        <v>2045352611</v>
+        <v>2046470795</v>
       </c>
       <c r="D25" t="n">
-        <v>1858529035</v>
+        <v>1923232579</v>
       </c>
       <c r="E25" t="n">
-        <v>1748911842</v>
+        <v>1853898245</v>
       </c>
       <c r="F25" t="n">
-        <v>1684874535</v>
+        <v>1767421384</v>
       </c>
       <c r="G25" t="n">
-        <v>1577662695</v>
+        <v>1659749747</v>
       </c>
       <c r="H25" t="n">
-        <v>1548915807</v>
+        <v>1609423107</v>
       </c>
       <c r="I25" t="n">
-        <v>77.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1234,25 +1234,25 @@
         <v>1350597695</v>
       </c>
       <c r="C26" t="n">
-        <v>1627748051</v>
+        <v>1638796581</v>
       </c>
       <c r="D26" t="n">
-        <v>1503791761</v>
+        <v>1517774373</v>
       </c>
       <c r="E26" t="n">
-        <v>1460924952</v>
+        <v>1482027761</v>
       </c>
       <c r="F26" t="n">
-        <v>1399318572</v>
+        <v>1436398869</v>
       </c>
       <c r="G26" t="n">
-        <v>1337498926</v>
+        <v>1377612495</v>
       </c>
       <c r="H26" t="n">
-        <v>1308238949</v>
+        <v>1351951919</v>
       </c>
       <c r="I26" t="n">
-        <v>82.2</v>
+        <v>84.09999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1268,22 +1268,22 @@
         <v>117764118</v>
       </c>
       <c r="D27" t="n">
-        <v>99383178</v>
+        <v>102302918</v>
       </c>
       <c r="E27" t="n">
-        <v>79352750</v>
+        <v>83485005</v>
       </c>
       <c r="F27" t="n">
-        <v>73764663</v>
+        <v>83115710</v>
       </c>
       <c r="G27" t="n">
-        <v>61457706</v>
+        <v>71468638</v>
       </c>
       <c r="H27" t="n">
-        <v>60922766</v>
+        <v>71227604</v>
       </c>
       <c r="I27" t="n">
-        <v>52.2</v>
+        <v>60.7</v>
       </c>
     </row>
   </sheetData>
